--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\Youtube\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E377B7DA-6933-4219-BEA8-C450DC11C2CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1244B0C-07D3-47AA-BFC7-94B2FF69591E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10110" yWindow="-18090" windowWidth="23430" windowHeight="12390" xr2:uid="{C9178ED6-2921-416F-945B-8E6AE2A0B125}"/>
+    <workbookView xWindow="0" yWindow="2010" windowWidth="22500" windowHeight="12390" xr2:uid="{C9178ED6-2921-416F-945B-8E6AE2A0B125}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Primary</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>Copenhagen</t>
+  </si>
+  <si>
+    <t>sdlfkjasdfkljasdfkljasdfkjasdfklajsdflkasdfkjasdfkljasdfkjasdkfljaskldfjasklfjaskldfjaksdfjaksdfjaklsfdjalksfjaklsdfjaklsdfjaklsdjfaklsdfjaklsdfjaklsdfjaskldfjaslkdfjaskdfjasklfjaskldfjaskldfjaskldfjaklsfjakslfjaklsfjaskdfjaklsdfjaklsdfjaklsdfjaklsdfjaklsfjaksfdjaksdfjaksljfaklsdfjaklsdfjkalsdjfaksfjkalsfjaklsdfjaksdfjaskldfjaklsdfjakldfjaskdjfaklsdfjaklsjfdaksldfjaslkfjaslkdfjasdklfjaskdfjaskldfjasdklfjaskldfjaslkdfjaskldfjasldkfjaskldfjaskldfjaklsdfjaskdfjaklsdfjaksldfjaklsdjfaskldfjaskldfjaklsdfjalskdjfalskdfjaslkdfjalskdfjasldfjalksdf</t>
   </si>
 </sst>
 </file>
@@ -440,7 +443,7 @@
   <dimension ref="C4:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="196" zoomScaleNormal="196" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -452,6 +455,9 @@
       <c r="C4" t="s">
         <v>10</v>
       </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="8" spans="3:7" x14ac:dyDescent="0.45">
       <c r="D8" s="2" t="s">
